--- a/data/trans_orig/P1419-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Edad-trans_orig.xlsx
@@ -757,19 +757,19 @@
         <v>6586</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2881</v>
+        <v>2770</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13924</v>
+        <v>14940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01408890261248742</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006163199156148744</v>
+        <v>0.005925189510492518</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0297849779435192</v>
+        <v>0.03195809836214657</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -778,19 +778,19 @@
         <v>6586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2729</v>
+        <v>2763</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14077</v>
+        <v>14649</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006849761343139147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002837823789244869</v>
+        <v>0.002873979111828564</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01463951450743985</v>
+        <v>0.01523442437262642</v>
       </c>
     </row>
     <row r="5">
@@ -820,19 +820,19 @@
         <v>460903</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>453565</v>
+        <v>452549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>464608</v>
+        <v>464719</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9859110973875126</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9702150220564808</v>
+        <v>0.9680419016378534</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9938368008438513</v>
+        <v>0.9940748104895075</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>982</v>
@@ -841,19 +841,19 @@
         <v>954967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>947476</v>
+        <v>946904</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>958824</v>
+        <v>958790</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9931502386568608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9853604854925602</v>
+        <v>0.9847655756273737</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9971621762107552</v>
+        <v>0.9971260208881715</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>8387</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3532</v>
+        <v>3568</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16306</v>
+        <v>18323</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01140333078403342</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004802891312543517</v>
+        <v>0.004851552530498589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02216973854552512</v>
+        <v>0.02491241471757677</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -966,19 +966,19 @@
         <v>30955</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20830</v>
+        <v>21366</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43793</v>
+        <v>43680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04948867545957288</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03330097484787551</v>
+        <v>0.034158759863572</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07001327269673605</v>
+        <v>0.06983319202491332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -987,19 +987,19 @@
         <v>39342</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27973</v>
+        <v>27739</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53096</v>
+        <v>53722</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02890697166972796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02055350744768188</v>
+        <v>0.02038180381701986</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03901273872344622</v>
+        <v>0.03947305155455626</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>727102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>719183</v>
+        <v>717166</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>731957</v>
+        <v>731921</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9885966692159666</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9778302614544748</v>
+        <v>0.9750875852824238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9951971086874565</v>
+        <v>0.9951484474695015</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -1037,19 +1037,19 @@
         <v>594539</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>581701</v>
+        <v>581814</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>604664</v>
+        <v>604128</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9505113245404271</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9299867273032638</v>
+        <v>0.9301668079750864</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9666990251521245</v>
+        <v>0.9658412401364278</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1259</v>
@@ -1058,19 +1058,19 @@
         <v>1321640</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1307886</v>
+        <v>1307260</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1333009</v>
+        <v>1333243</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.971093028330272</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9609872612765532</v>
+        <v>0.9605269484454437</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9794464925523179</v>
+        <v>0.9796181961829802</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>10140</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4614</v>
+        <v>5341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17799</v>
+        <v>19362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0158772847897917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007224492058273644</v>
+        <v>0.008363320572043918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02786869482111432</v>
+        <v>0.03031615749572253</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -1183,19 +1183,19 @@
         <v>50489</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38567</v>
+        <v>37660</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64794</v>
+        <v>65853</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07319982741971037</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05591471513716946</v>
+        <v>0.0546001720429028</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09393990664554916</v>
+        <v>0.09547470845058113</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -1204,19 +1204,19 @@
         <v>60629</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46648</v>
+        <v>47406</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75814</v>
+        <v>79077</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04564056550391735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0351156760517433</v>
+        <v>0.03568614385965924</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05707121372227437</v>
+        <v>0.05952783612754951</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>628528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>620869</v>
+        <v>619306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>634054</v>
+        <v>633327</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9841227152102083</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9721313051788856</v>
+        <v>0.9696838425042772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9927755079417263</v>
+        <v>0.9916366794279561</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>609</v>
@@ -1254,19 +1254,19 @@
         <v>639255</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>624950</v>
+        <v>623891</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>651177</v>
+        <v>652084</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9268001725802897</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9060600933544507</v>
+        <v>0.9045252915494189</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9440852848628306</v>
+        <v>0.9453998279570971</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1212</v>
@@ -1275,19 +1275,19 @@
         <v>1267783</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1252598</v>
+        <v>1249335</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1281764</v>
+        <v>1281006</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9543594344960826</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9429287862777256</v>
+        <v>0.9404721638724504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9648843239482566</v>
+        <v>0.9643138561403407</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>20446</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12422</v>
+        <v>12624</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32002</v>
+        <v>31963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03938430011422637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02392737324377863</v>
+        <v>0.02431731382879462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06164303074116566</v>
+        <v>0.06156866899015406</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -1400,19 +1400,19 @@
         <v>54421</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41676</v>
+        <v>41859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69698</v>
+        <v>69667</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1055400677428701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08082435227002471</v>
+        <v>0.08117887436188803</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1351677455068129</v>
+        <v>0.135107835968069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1421,19 +1421,19 @@
         <v>74867</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59183</v>
+        <v>59017</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93513</v>
+        <v>94384</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07235014202949132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05719326069315333</v>
+        <v>0.05703325965952089</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09036889760560383</v>
+        <v>0.0912105197666043</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>498701</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487145</v>
+        <v>487184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>506725</v>
+        <v>506523</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9606156998857737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9383569692588344</v>
+        <v>0.9384313310098458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9760726267562214</v>
+        <v>0.9756826861712053</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>449</v>
@@ -1471,19 +1471,19 @@
         <v>461221</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>445944</v>
+        <v>445975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>473966</v>
+        <v>473783</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8944599322571298</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8648322544931873</v>
+        <v>0.864892164031931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9191756477299754</v>
+        <v>0.9188211256381122</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>915</v>
@@ -1492,19 +1492,19 @@
         <v>959922</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>941276</v>
+        <v>940405</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>975606</v>
+        <v>975772</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9276498579705087</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9096311023943962</v>
+        <v>0.9087894802333957</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9428067393068467</v>
+        <v>0.9429667403404791</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>22227</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13974</v>
+        <v>14172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34067</v>
+        <v>32626</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05747800083586326</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03613462802976414</v>
+        <v>0.03664785131975708</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0880953540086002</v>
+        <v>0.08436732554261384</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1617,19 +1617,19 @@
         <v>61446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46939</v>
+        <v>47933</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75807</v>
+        <v>77088</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1521002173410399</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1161894252394374</v>
+        <v>0.1186495043176398</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1876477168692181</v>
+        <v>0.1908185103939403</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -1638,19 +1638,19 @@
         <v>83674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67328</v>
+        <v>68754</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>102127</v>
+        <v>102809</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1058228110836922</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08515056868201001</v>
+        <v>0.08695378981565555</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1291602810877362</v>
+        <v>0.1300232629432756</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>364483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>352643</v>
+        <v>354084</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>372736</v>
+        <v>372538</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9425219991641367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9119046459913998</v>
+        <v>0.9156326744573861</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9638653719702359</v>
+        <v>0.9633521486802427</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>335</v>
@@ -1688,19 +1688,19 @@
         <v>342540</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>328179</v>
+        <v>326898</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>357047</v>
+        <v>356053</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.84789978265896</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8123522831307818</v>
+        <v>0.8091814896060596</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8838105747605626</v>
+        <v>0.8813504956823602</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>704</v>
@@ -1709,19 +1709,19 @@
         <v>707022</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>688569</v>
+        <v>687887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>723368</v>
+        <v>721942</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8941771889163078</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8708397189122639</v>
+        <v>0.8699767370567244</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9148494313179902</v>
+        <v>0.9130462101843444</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>19167</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11907</v>
+        <v>12078</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28846</v>
+        <v>29280</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0655087712460807</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04069665080223259</v>
+        <v>0.04128026942448349</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09858986169126831</v>
+        <v>0.1000738457531655</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>83</v>
@@ -1834,19 +1834,19 @@
         <v>76501</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62825</v>
+        <v>62045</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90895</v>
+        <v>91442</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2230779785859626</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1831975595183575</v>
+        <v>0.1809226198531852</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2650508480802564</v>
+        <v>0.2666457005113608</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>103</v>
@@ -1855,19 +1855,19 @@
         <v>95668</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79863</v>
+        <v>79447</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113369</v>
+        <v>113477</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1505353534774306</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1256657137796905</v>
+        <v>0.1250115002821868</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1783886961213508</v>
+        <v>0.1785588602171282</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>273416</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263737</v>
+        <v>263303</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>280676</v>
+        <v>280505</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9344912287539193</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9014101383087316</v>
+        <v>0.899926154246835</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9593033491977674</v>
+        <v>0.9587197305755166</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>288</v>
@@ -1905,19 +1905,19 @@
         <v>266433</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252039</v>
+        <v>251492</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>280109</v>
+        <v>280889</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7769220214140374</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7349491519197437</v>
+        <v>0.7333542994886391</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8168024404816426</v>
+        <v>0.8190773801468143</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>571</v>
@@ -1926,19 +1926,19 @@
         <v>539849</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>522148</v>
+        <v>522040</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>555654</v>
+        <v>556070</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8494646465225694</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8216113038786491</v>
+        <v>0.8214411397828717</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8743342862203095</v>
+        <v>0.8749884997178131</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>18711</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11559</v>
+        <v>11097</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27795</v>
+        <v>28104</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08914937610941605</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05507169553211562</v>
+        <v>0.05287162382916416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.132432610765904</v>
+        <v>0.1339053233078957</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -2051,19 +2051,19 @@
         <v>83939</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68276</v>
+        <v>67517</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102191</v>
+        <v>102902</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2513834409045896</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2044762634742195</v>
+        <v>0.2022021817647795</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.306045626679007</v>
+        <v>0.3081745686877186</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>93</v>
@@ -2072,19 +2072,19 @@
         <v>102650</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86248</v>
+        <v>85605</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>122181</v>
+        <v>122236</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1887671538044998</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1586055001364283</v>
+        <v>0.1574227303198678</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.224683746633934</v>
+        <v>0.2247853698155844</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>191172</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>182088</v>
+        <v>181779</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>198324</v>
+        <v>198786</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9108506238905839</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8675673892340956</v>
+        <v>0.8660946766921043</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9449283044678843</v>
+        <v>0.9471283761708357</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>216</v>
@@ -2122,19 +2122,19 @@
         <v>249969</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>231717</v>
+        <v>231006</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>265632</v>
+        <v>266391</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7486165590954104</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6939543733209932</v>
+        <v>0.6918254313122815</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7955237365257806</v>
+        <v>0.7977978182352206</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>417</v>
@@ -2143,19 +2143,19 @@
         <v>441141</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>421610</v>
+        <v>421555</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>457543</v>
+        <v>458186</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8112328461955002</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.775316253366066</v>
+        <v>0.7752146301844157</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8413944998635717</v>
+        <v>0.8425772696801322</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>99079</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>80964</v>
+        <v>81296</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120304</v>
+        <v>122651</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03023875351463116</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02471005503793902</v>
+        <v>0.02481157632633572</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0367167843875673</v>
+        <v>0.03743316686085231</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>354</v>
@@ -2268,19 +2268,19 @@
         <v>364338</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>327860</v>
+        <v>330106</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>404256</v>
+        <v>404240</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1078178104653652</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09702312699098127</v>
+        <v>0.09768768418091697</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.119630666628669</v>
+        <v>0.1196260605721394</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>451</v>
@@ -2289,19 +2289,19 @@
         <v>463416</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>420478</v>
+        <v>423027</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>506109</v>
+        <v>503676</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06962654745453964</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06317519645404583</v>
+        <v>0.06355816105474427</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07604098589077291</v>
+        <v>0.0756753997284475</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3177464</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3156239</v>
+        <v>3153892</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3195579</v>
+        <v>3195247</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9697612464853689</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9632832156124328</v>
+        <v>0.9625668331391478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.975289944962061</v>
+        <v>0.9751884236736645</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2943</v>
@@ -2339,19 +2339,19 @@
         <v>3014859</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2974941</v>
+        <v>2974957</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3051337</v>
+        <v>3049091</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8921821895346348</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8803693333713307</v>
+        <v>0.8803739394278606</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9029768730090187</v>
+        <v>0.902312315819083</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6060</v>
@@ -2360,19 +2360,19 @@
         <v>6192325</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6149632</v>
+        <v>6152065</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6235263</v>
+        <v>6232714</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9303734525454603</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9239590141092271</v>
+        <v>0.9243246002715525</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9368248035459542</v>
+        <v>0.9364418389452557</v>
       </c>
     </row>
     <row r="27">
@@ -2876,19 +2876,19 @@
         <v>2867</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8588</v>
+        <v>8651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004172451793886565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001368481838272841</v>
+        <v>0.001377143906406029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01249841871515825</v>
+        <v>0.01259012974771729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2897,19 +2897,19 @@
         <v>7052</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3004</v>
+        <v>2990</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14286</v>
+        <v>13313</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01155513799663221</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004922383711101566</v>
+        <v>0.004899319452566323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.023409956759542</v>
+        <v>0.02181511741460643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2918,19 +2918,19 @@
         <v>9918</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5086</v>
+        <v>4918</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17931</v>
+        <v>17721</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007645184988624445</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003920508881608937</v>
+        <v>0.0037906100986578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01382130504765993</v>
+        <v>0.01365934769123793</v>
       </c>
     </row>
     <row r="8">
@@ -2947,19 +2947,19 @@
         <v>684220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>678499</v>
+        <v>678436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>686147</v>
+        <v>686141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9958275482061134</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9875015812848414</v>
+        <v>0.9874098702522828</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9986315181617271</v>
+        <v>0.9986228560935939</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>564</v>
@@ -2968,19 +2968,19 @@
         <v>603203</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>595969</v>
+        <v>596942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>607251</v>
+        <v>607265</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9884448620033678</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.976590043240458</v>
+        <v>0.9781848825853935</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9950776162888985</v>
+        <v>0.9951006805474337</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1228</v>
@@ -2989,19 +2989,19 @@
         <v>1287424</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1279411</v>
+        <v>1279621</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1292256</v>
+        <v>1292424</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9923548150113756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9861786949523401</v>
+        <v>0.9863406523087621</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9960794911183911</v>
+        <v>0.9962093899013421</v>
       </c>
     </row>
     <row r="9">
@@ -3093,19 +3093,19 @@
         <v>5916</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1849</v>
+        <v>1811</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14882</v>
+        <v>16858</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008675805363702467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002710959423093958</v>
+        <v>0.002655501133237159</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02182605620093513</v>
+        <v>0.02472337457927194</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -3114,19 +3114,19 @@
         <v>39987</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28098</v>
+        <v>28966</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53860</v>
+        <v>54546</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05635392165394234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03959774619201917</v>
+        <v>0.04082199311596795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07590430190016136</v>
+        <v>0.07687165432335398</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -3135,19 +3135,19 @@
         <v>45903</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33263</v>
+        <v>33427</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63213</v>
+        <v>62182</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03298963773952187</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02390560363993477</v>
+        <v>0.02402334458702331</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04542986615425171</v>
+        <v>0.04468937183710926</v>
       </c>
     </row>
     <row r="11">
@@ -3164,19 +3164,19 @@
         <v>675947</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>666981</v>
+        <v>665005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680014</v>
+        <v>680052</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9913241946362975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.978173943799065</v>
+        <v>0.975276625420728</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997289040576906</v>
+        <v>0.9973444988667628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>630</v>
@@ -3185,19 +3185,19 @@
         <v>669587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>655714</v>
+        <v>655028</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>681476</v>
+        <v>680608</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9436460783460576</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9240956980998384</v>
+        <v>0.923128345676646</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9604022538079807</v>
+        <v>0.9591780068840318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1277</v>
@@ -3206,19 +3206,19 @@
         <v>1345534</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1328224</v>
+        <v>1329255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1358174</v>
+        <v>1358010</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9670103622604781</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9545701338457484</v>
+        <v>0.9553106281628908</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9760943963600655</v>
+        <v>0.9759766554129767</v>
       </c>
     </row>
     <row r="12">
@@ -3310,19 +3310,19 @@
         <v>9842</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4464</v>
+        <v>4296</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19104</v>
+        <v>19341</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01601273968936931</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007262917848783972</v>
+        <v>0.006989242367550367</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03108356528155641</v>
+        <v>0.03146800142242147</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3331,19 +3331,19 @@
         <v>40421</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29421</v>
+        <v>29920</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55231</v>
+        <v>54590</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06580447574327053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04789696619858733</v>
+        <v>0.04870834361012515</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08991457469416869</v>
+        <v>0.08887125143642494</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -3352,19 +3352,19 @@
         <v>50263</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37347</v>
+        <v>38621</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65364</v>
+        <v>69421</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0409014597743015</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03039129287340549</v>
+        <v>0.03142793251791125</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05318972928569278</v>
+        <v>0.0564910076872976</v>
       </c>
     </row>
     <row r="14">
@@ -3381,19 +3381,19 @@
         <v>604775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>595513</v>
+        <v>595276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>610153</v>
+        <v>610321</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9839872603106307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9689164347184434</v>
+        <v>0.9685319985775784</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9927370821512159</v>
+        <v>0.9930107576324495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>501</v>
@@ -3402,19 +3402,19 @@
         <v>573843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>559033</v>
+        <v>559674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>584843</v>
+        <v>584344</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9341955242567295</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9100854253058313</v>
+        <v>0.911128748563575</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9521030338014126</v>
+        <v>0.9512916563898748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1041</v>
@@ -3423,19 +3423,19 @@
         <v>1178617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1163516</v>
+        <v>1159459</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1191533</v>
+        <v>1190259</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9590985402256985</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9468102707143072</v>
+        <v>0.9435089923127022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9696087071265946</v>
+        <v>0.9685720674820887</v>
       </c>
     </row>
     <row r="15">
@@ -3527,19 +3527,19 @@
         <v>5268</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12001</v>
+        <v>11882</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01226833457921448</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004823686084274427</v>
+        <v>0.004800158317595548</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02794552241462402</v>
+        <v>0.02766999187073511</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -3548,19 +3548,19 @@
         <v>59010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45464</v>
+        <v>46213</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74186</v>
+        <v>75034</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1317772740014309</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.101526851946083</v>
+        <v>0.1032002011675687</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1656685370195956</v>
+        <v>0.1675624756825742</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -3569,19 +3569,19 @@
         <v>64278</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49977</v>
+        <v>51046</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81308</v>
+        <v>83570</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07327417605877223</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05697122050102844</v>
+        <v>0.05819043909003029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09268770109474875</v>
+        <v>0.09526598611707968</v>
       </c>
     </row>
     <row r="17">
@@ -3598,19 +3598,19 @@
         <v>424161</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>417428</v>
+        <v>417547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>427358</v>
+        <v>427368</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9877316654207855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.972054477585376</v>
+        <v>0.9723300081292651</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9951763139157255</v>
+        <v>0.9951998416824045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>350</v>
@@ -3619,19 +3619,19 @@
         <v>388790</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>373614</v>
+        <v>372766</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>402336</v>
+        <v>401587</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8682227259985692</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8343314629804043</v>
+        <v>0.8324375243174255</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8984731480539168</v>
+        <v>0.8967997988324313</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>738</v>
@@ -3640,19 +3640,19 @@
         <v>812951</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>795921</v>
+        <v>793659</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>827252</v>
+        <v>826183</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9267258239412277</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9073122989052512</v>
+        <v>0.9047340138829203</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9430287794989715</v>
+        <v>0.9418095609099696</v>
       </c>
     </row>
     <row r="18">
@@ -3744,19 +3744,19 @@
         <v>9206</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4803</v>
+        <v>4123</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17116</v>
+        <v>15960</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02971582434368356</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01550393644704973</v>
+        <v>0.01330791324586259</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05525256500705143</v>
+        <v>0.05151946074226341</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -3765,19 +3765,19 @@
         <v>55824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42272</v>
+        <v>42692</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69150</v>
+        <v>70437</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.157696186739748</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1194127900002812</v>
+        <v>0.1205991963687759</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.195341596829178</v>
+        <v>0.1989759161500461</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -3786,19 +3786,19 @@
         <v>65029</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51436</v>
+        <v>52067</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81496</v>
+        <v>81817</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09796793712189396</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07748990378802298</v>
+        <v>0.07844004173202035</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1227751910876339</v>
+        <v>0.1232595720539635</v>
       </c>
     </row>
     <row r="20">
@@ -3815,19 +3815,19 @@
         <v>300580</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>292670</v>
+        <v>293826</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>304983</v>
+        <v>305663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9702841756563164</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9447474349929488</v>
+        <v>0.948480539257733</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9844960635529504</v>
+        <v>0.9866920867541373</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>289</v>
@@ -3836,19 +3836,19 @@
         <v>298172</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>284846</v>
+        <v>283559</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>311724</v>
+        <v>311304</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8423038132602521</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.804658403170822</v>
+        <v>0.8010240838499537</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8805872099997188</v>
+        <v>0.8794008036312241</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>562</v>
@@ -3857,19 +3857,19 @@
         <v>598753</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>582286</v>
+        <v>581965</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>612346</v>
+        <v>611715</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.902032062878106</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8772248089123657</v>
+        <v>0.8767404279460366</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9225100962119769</v>
+        <v>0.9215599582679797</v>
       </c>
     </row>
     <row r="21">
@@ -3961,19 +3961,19 @@
         <v>7690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3291</v>
+        <v>3380</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14994</v>
+        <v>15914</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03077711214619888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01317295978061112</v>
+        <v>0.01352912069744893</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06001251831740197</v>
+        <v>0.06369497330402543</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>87</v>
@@ -3982,19 +3982,19 @@
         <v>97391</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81739</v>
+        <v>80325</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>116303</v>
+        <v>115219</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2503751121519748</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2101365626398123</v>
+        <v>0.2065029013256679</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2989966877587322</v>
+        <v>0.2962085841205643</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -4003,19 +4003,19 @@
         <v>105080</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>87349</v>
+        <v>86163</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128186</v>
+        <v>126800</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1644887879248351</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1367330773736871</v>
+        <v>0.1348760444778637</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2006571249107141</v>
+        <v>0.198487991292233</v>
       </c>
     </row>
     <row r="23">
@@ -4032,19 +4032,19 @@
         <v>242161</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>234857</v>
+        <v>233937</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>246560</v>
+        <v>246471</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9692228878538011</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9399874816825979</v>
+        <v>0.9363050266959747</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9868270402193888</v>
+        <v>0.9864708793025511</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>263</v>
@@ -4053,19 +4053,19 @@
         <v>291588</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>272676</v>
+        <v>273760</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>307240</v>
+        <v>308654</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7496248878480252</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7010033122412679</v>
+        <v>0.7037914158794355</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.789863437360188</v>
+        <v>0.7934970986743318</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>478</v>
@@ -4074,19 +4074,19 @@
         <v>533750</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>510644</v>
+        <v>512030</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>551481</v>
+        <v>552667</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8355112120751649</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7993428750892858</v>
+        <v>0.801512008707767</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8632669226263129</v>
+        <v>0.8651239555221363</v>
       </c>
     </row>
     <row r="24">
@@ -4178,19 +4178,19 @@
         <v>40788</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28517</v>
+        <v>29281</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54411</v>
+        <v>56833</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01190268261632861</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008321914230386985</v>
+        <v>0.008544790778515452</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01587805664747063</v>
+        <v>0.01658484248647284</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>278</v>
@@ -4199,19 +4199,19 @@
         <v>299684</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>268838</v>
+        <v>268332</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>336173</v>
+        <v>333160</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08429711105301943</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07562042602825234</v>
+        <v>0.0754780933745748</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09456085062818462</v>
+        <v>0.09371339908290738</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>314</v>
@@ -4220,19 +4220,19 @@
         <v>340472</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>303307</v>
+        <v>306565</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>378187</v>
+        <v>378251</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04876516366056659</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04344210027482111</v>
+        <v>0.04390865101475343</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05416702218811009</v>
+        <v>0.05417611118663095</v>
       </c>
     </row>
     <row r="26">
@@ -4249,19 +4249,19 @@
         <v>3385991</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3372368</v>
+        <v>3369946</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3398262</v>
+        <v>3397498</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9880973173836713</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9841219433525294</v>
+        <v>0.9834151575135271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.991678085769613</v>
+        <v>0.9914552092214846</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3018</v>
@@ -4270,19 +4270,19 @@
         <v>3255414</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3218925</v>
+        <v>3221938</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3286260</v>
+        <v>3286766</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9157028889469806</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9054391493718151</v>
+        <v>0.9062866009170925</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9243795739717475</v>
+        <v>0.9245219066254251</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6191</v>
@@ -4291,19 +4291,19 @@
         <v>6641405</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6603690</v>
+        <v>6603626</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6678570</v>
+        <v>6675312</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9512348363394334</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.94583297781189</v>
+        <v>0.945823888813369</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9565578997251791</v>
+        <v>0.9560913489852463</v>
       </c>
     </row>
     <row r="27">
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6155</v>
+        <v>5325</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001787271379041464</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01042264131940703</v>
+        <v>0.009018332250330458</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4828,19 +4828,19 @@
         <v>3849</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9001</v>
+        <v>9408</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00682921618631397</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001633165490484467</v>
+        <v>0.001667011819608586</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01597165809093042</v>
+        <v>0.01669487660106872</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -4849,19 +4849,19 @@
         <v>4904</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1940</v>
+        <v>1845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10752</v>
+        <v>10777</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004249366525973928</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001680913087052108</v>
+        <v>0.001598818528830602</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009317199790825452</v>
+        <v>0.00933862663374436</v>
       </c>
     </row>
     <row r="8">
@@ -4878,7 +4878,7 @@
         <v>589441</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>584341</v>
+        <v>585171</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4887,7 +4887,7 @@
         <v>0.9982127286209586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9895773586805935</v>
+        <v>0.9909816677496697</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4899,19 +4899,19 @@
         <v>559695</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>554543</v>
+        <v>554136</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562624</v>
+        <v>562605</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9931707838136861</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.98402834190907</v>
+        <v>0.9833051233989313</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983668345095156</v>
+        <v>0.9983329881803914</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1141</v>
@@ -4920,19 +4920,19 @@
         <v>1149136</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1143288</v>
+        <v>1143263</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1152100</v>
+        <v>1152195</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.995750633474026</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.990682800209174</v>
+        <v>0.9906613733662558</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9983190869129478</v>
+        <v>0.9984011814711694</v>
       </c>
     </row>
     <row r="9">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7626</v>
+        <v>8610</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002283391634970365</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01139796210033672</v>
+        <v>0.01286755173490435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5045,19 +5045,19 @@
         <v>12413</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6767</v>
+        <v>7408</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20260</v>
+        <v>21689</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01876790604847879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01023152733445648</v>
+        <v>0.01120039481572861</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03063286436280651</v>
+        <v>0.03279373449415993</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -5066,19 +5066,19 @@
         <v>13941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7739</v>
+        <v>7951</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23079</v>
+        <v>22765</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01047788333658172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005816935536959866</v>
+        <v>0.005975969510661624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01734618691464957</v>
+        <v>0.01711009956601531</v>
       </c>
     </row>
     <row r="11">
@@ -5095,7 +5095,7 @@
         <v>667569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>661471</v>
+        <v>660487</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -5104,7 +5104,7 @@
         <v>0.9977166083650296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9886020378996633</v>
+        <v>0.9871324482650949</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5116,19 +5116,19 @@
         <v>648973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641126</v>
+        <v>639697</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>654619</v>
+        <v>653978</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9812320939515212</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9693671356371935</v>
+        <v>0.9672062655058398</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9897684726655435</v>
+        <v>0.9887996051842715</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1289</v>
@@ -5137,19 +5137,19 @@
         <v>1316542</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1307404</v>
+        <v>1307718</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1322744</v>
+        <v>1322532</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9895221166634183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9826538130853507</v>
+        <v>0.9828899004339846</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9941830644630403</v>
+        <v>0.9940240304893384</v>
       </c>
     </row>
     <row r="12">
@@ -5241,19 +5241,19 @@
         <v>18255</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10867</v>
+        <v>11173</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28276</v>
+        <v>28078</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02825620179775784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0168209960882877</v>
+        <v>0.01729412559490097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04376724334396002</v>
+        <v>0.04346189624222273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -5262,19 +5262,19 @@
         <v>36893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25644</v>
+        <v>25559</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50038</v>
+        <v>50270</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05683884779348327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03950788094278884</v>
+        <v>0.03937785765054388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07709065251075871</v>
+        <v>0.07744888728814062</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -5283,19 +5283,19 @@
         <v>55148</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41214</v>
+        <v>41166</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72169</v>
+        <v>70631</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04258094494932155</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.031822346925178</v>
+        <v>0.03178572293175247</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05572375753001219</v>
+        <v>0.05453596175339089</v>
       </c>
     </row>
     <row r="14">
@@ -5312,19 +5312,19 @@
         <v>627793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>617772</v>
+        <v>617970</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>635181</v>
+        <v>634875</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9717437982022422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9562327566560399</v>
+        <v>0.9565381037577785</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9831790039117123</v>
+        <v>0.9827058744050994</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>568</v>
@@ -5333,19 +5333,19 @@
         <v>612184</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>599039</v>
+        <v>598807</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>623433</v>
+        <v>623518</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9431611522065168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9229093474892412</v>
+        <v>0.9225511127118592</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9604921190572111</v>
+        <v>0.9606221423494561</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1133</v>
@@ -5354,19 +5354,19 @@
         <v>1239977</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1222956</v>
+        <v>1224494</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1253911</v>
+        <v>1253959</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9574190550506785</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9442762424699879</v>
+        <v>0.9454640382466092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9681776530748222</v>
+        <v>0.9682142770682477</v>
       </c>
     </row>
     <row r="15">
@@ -5458,19 +5458,19 @@
         <v>10215</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4941</v>
+        <v>4833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17954</v>
+        <v>18979</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02137338464864808</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01033796043305884</v>
+        <v>0.01011222226123212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03756765743476855</v>
+        <v>0.03971256435396044</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -5479,19 +5479,19 @@
         <v>47539</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33921</v>
+        <v>34412</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62322</v>
+        <v>61012</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09568109385322478</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06827141407020038</v>
+        <v>0.06925988346360663</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1254353992251339</v>
+        <v>0.1227980712131832</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -5500,19 +5500,19 @@
         <v>57754</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44144</v>
+        <v>42848</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75906</v>
+        <v>75768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0592488062817086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04528721321539286</v>
+        <v>0.04395698768485227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07787040615430608</v>
+        <v>0.07772950255224384</v>
       </c>
     </row>
     <row r="17">
@@ -5529,19 +5529,19 @@
         <v>467703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>459964</v>
+        <v>458939</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>472977</v>
+        <v>473085</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9786266153513519</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9624323425652315</v>
+        <v>0.9602874356460395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9896620395669411</v>
+        <v>0.9898877777387679</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>393</v>
@@ -5550,19 +5550,19 @@
         <v>449310</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>434527</v>
+        <v>435837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>462928</v>
+        <v>462437</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9043189061467752</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8745646007748661</v>
+        <v>0.8772019287868168</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9317285859297996</v>
+        <v>0.9307401165363934</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>808</v>
@@ -5571,19 +5571,19 @@
         <v>917013</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>898861</v>
+        <v>898999</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>930623</v>
+        <v>931919</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9407511937182914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9221295938456938</v>
+        <v>0.922270497447756</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9547127867846071</v>
+        <v>0.9560430123151477</v>
       </c>
     </row>
     <row r="18">
@@ -5675,19 +5675,19 @@
         <v>10311</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5026</v>
+        <v>5154</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18722</v>
+        <v>17961</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03084154701449298</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01503327783426322</v>
+        <v>0.01541446569079456</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05599814519892477</v>
+        <v>0.05372328221952584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -5696,19 +5696,19 @@
         <v>54323</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40837</v>
+        <v>41055</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70943</v>
+        <v>70576</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1438015213344683</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.108103526094557</v>
+        <v>0.1086804134593992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1877976255518199</v>
+        <v>0.1868260995624976</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -5717,19 +5717,19 @@
         <v>64634</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50652</v>
+        <v>49308</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80898</v>
+        <v>80999</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09076636854633317</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07113143994714016</v>
+        <v>0.06924320514276104</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1136063714235828</v>
+        <v>0.1137475177226286</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>324019</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>315608</v>
+        <v>316369</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>329304</v>
+        <v>329176</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9691584529855071</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9440018548010758</v>
+        <v>0.9462767177804743</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9849667221657368</v>
+        <v>0.9845855343092056</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>304</v>
@@ -5767,19 +5767,19 @@
         <v>323439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>306819</v>
+        <v>307186</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>336925</v>
+        <v>336707</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8561984786655317</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.81220237444818</v>
+        <v>0.8131739004375024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8918964739054429</v>
+        <v>0.8913195865406008</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>619</v>
@@ -5788,19 +5788,19 @@
         <v>647458</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>631194</v>
+        <v>631093</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>661440</v>
+        <v>662784</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9092336314536669</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8863936285764171</v>
+        <v>0.8862524822773713</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9288685600528599</v>
+        <v>0.9307567948572389</v>
       </c>
     </row>
     <row r="21">
@@ -5892,19 +5892,19 @@
         <v>10977</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5950</v>
+        <v>5894</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18942</v>
+        <v>18286</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04271309109760944</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02315370597062083</v>
+        <v>0.02293534426730077</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0737049129496426</v>
+        <v>0.07115333622012789</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -5913,19 +5913,19 @@
         <v>63242</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47540</v>
+        <v>46566</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82062</v>
+        <v>81592</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1580372147435876</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1187993586905604</v>
+        <v>0.1163662255544955</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2050690858225077</v>
+        <v>0.2038927742944575</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -5934,19 +5934,19 @@
         <v>74219</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56947</v>
+        <v>58300</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>93658</v>
+        <v>95157</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.112937461972623</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08665532782309437</v>
+        <v>0.08871393367961292</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1425184734455548</v>
+        <v>0.1447994510442179</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         <v>246021</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>238056</v>
+        <v>238712</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>251048</v>
+        <v>251104</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9572869089023905</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9262950870503573</v>
+        <v>0.9288466637798725</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9768462940293792</v>
+        <v>0.9770646557326992</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>255</v>
@@ -5984,19 +5984,19 @@
         <v>336927</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>318107</v>
+        <v>318577</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>352629</v>
+        <v>353603</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8419627852564124</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7949309141774923</v>
+        <v>0.7961072257055425</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8812006413094396</v>
+        <v>0.8836337744455045</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>545</v>
@@ -6005,19 +6005,19 @@
         <v>582948</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>563509</v>
+        <v>562010</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>600220</v>
+        <v>598867</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.887062538027377</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8574815265544453</v>
+        <v>0.8552005489557819</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9133446721769057</v>
+        <v>0.9112860663203867</v>
       </c>
     </row>
     <row r="24">
@@ -6109,19 +6109,19 @@
         <v>52341</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39496</v>
+        <v>38814</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>67563</v>
+        <v>68805</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01542009898235469</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0116358945316479</v>
+        <v>0.01143489442991734</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01990460939253804</v>
+        <v>0.02027032827971853</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>187</v>
@@ -6130,19 +6130,19 @@
         <v>218258</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>188859</v>
+        <v>189381</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>247444</v>
+        <v>250455</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06157568046127089</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05328149660140567</v>
+        <v>0.05342894227592656</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06981000136150362</v>
+        <v>0.07065947332709893</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>237</v>
@@ -6151,19 +6151,19 @@
         <v>270599</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>238098</v>
+        <v>237783</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>306332</v>
+        <v>308941</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03899740627773214</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03431353413956627</v>
+        <v>0.03426814894405213</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0441471124840507</v>
+        <v>0.04452307355838149</v>
       </c>
     </row>
     <row r="26">
@@ -6180,19 +6180,19 @@
         <v>3342009</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3326787</v>
+        <v>3325545</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3354854</v>
+        <v>3355536</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9845799010176454</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9800953906074619</v>
+        <v>0.9797296717202814</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9883641054683521</v>
+        <v>0.9885651055700826</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3151</v>
@@ -6201,19 +6201,19 @@
         <v>3326284</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3297098</v>
+        <v>3294087</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3355683</v>
+        <v>3355161</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9384243195387291</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9301899986384963</v>
+        <v>0.929340526672901</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.946718503398594</v>
+        <v>0.9465710577240734</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6332</v>
@@ -6222,19 +6222,19 @@
         <v>6668293</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6632560</v>
+        <v>6629951</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6700794</v>
+        <v>6701109</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9610025937222678</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9558528875159492</v>
+        <v>0.9554769264416186</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9656864658604337</v>
+        <v>0.9657318510559481</v>
       </c>
     </row>
     <row r="27">
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17314</v>
+        <v>17895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01314096958050002</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0477605670184035</v>
+        <v>0.04936525953352439</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6606,16 +6606,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18160</v>
+        <v>18611</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006184249878837289</v>
+        <v>0.006184249878837288</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02357458923570476</v>
+        <v>0.02416003133421227</v>
       </c>
     </row>
     <row r="5">
@@ -6645,7 +6645,7 @@
         <v>357748</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>345198</v>
+        <v>344617</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6654,7 +6654,7 @@
         <v>0.9868590304195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9522394329815967</v>
+        <v>0.950634740466477</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6666,16 +6666,16 @@
         <v>765541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>752145</v>
+        <v>751694</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9938157501211629</v>
+        <v>0.9938157501211627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9764254107642956</v>
+        <v>0.9758399686657878</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9207</v>
+        <v>7754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005142841250680748</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01930727686867076</v>
+        <v>0.01626052408432152</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -6791,19 +6791,19 @@
         <v>9536</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4311</v>
+        <v>4893</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17397</v>
+        <v>18078</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01903057067158101</v>
+        <v>0.019030570671581</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008603157843348502</v>
+        <v>0.00976401389678349</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03471877246771975</v>
+        <v>0.03607763227235582</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -6812,19 +6812,19 @@
         <v>11988</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6749</v>
+        <v>6045</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21379</v>
+        <v>21232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01225848129862566</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00690136301576963</v>
+        <v>0.006181114880473969</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02186090093599894</v>
+        <v>0.02171019946788251</v>
       </c>
     </row>
     <row r="8">
@@ -6841,16 +6841,16 @@
         <v>474437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467683</v>
+        <v>469136</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9948571587493192</v>
+        <v>0.9948571587493193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9806927231313295</v>
+        <v>0.9837394759156846</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6862,19 +6862,19 @@
         <v>491547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>483686</v>
+        <v>483005</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496772</v>
+        <v>496190</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.980969429328419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9652812275322799</v>
+        <v>0.9639223677276442</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9913968421566514</v>
+        <v>0.9902359861032166</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>751</v>
@@ -6883,19 +6883,19 @@
         <v>965985</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>956594</v>
+        <v>956741</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>971224</v>
+        <v>971928</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9877415187013744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9781390990640015</v>
+        <v>0.9782898005321179</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9930986369842307</v>
+        <v>0.9938188851195263</v>
       </c>
     </row>
     <row r="9">
@@ -6987,19 +6987,19 @@
         <v>13162</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7382</v>
+        <v>6719</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24443</v>
+        <v>23780</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02119972838899784</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01188999789570431</v>
+        <v>0.01082227502548358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03937097174460788</v>
+        <v>0.03830271327084866</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -7008,19 +7008,19 @@
         <v>39238</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29594</v>
+        <v>30972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50406</v>
+        <v>51941</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06313636032931441</v>
+        <v>0.06313636032931443</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04761823795221968</v>
+        <v>0.04983549537023745</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0811047324237486</v>
+        <v>0.08357475639397456</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -7029,19 +7029,19 @@
         <v>52400</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40891</v>
+        <v>41332</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66520</v>
+        <v>66267</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04217903794772528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03291501452904849</v>
+        <v>0.03326985062208207</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0535448845018073</v>
+        <v>0.05334134009730832</v>
       </c>
     </row>
     <row r="11">
@@ -7058,19 +7058,19 @@
         <v>607675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>596394</v>
+        <v>597057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>613455</v>
+        <v>614118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9788002716110024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9606290282553902</v>
+        <v>0.9616972867291481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9881100021042953</v>
+        <v>0.9891777249745157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>792</v>
@@ -7079,19 +7079,19 @@
         <v>582250</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>571082</v>
+        <v>569547</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>591894</v>
+        <v>590516</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9368636396706854</v>
+        <v>0.9368636396706855</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9188952675762514</v>
+        <v>0.9164252436060258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9523817620477804</v>
+        <v>0.9501645046297628</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1327</v>
@@ -7100,19 +7100,19 @@
         <v>1189925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1175805</v>
+        <v>1176058</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1201434</v>
+        <v>1200993</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9578209620522748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9464551154981926</v>
+        <v>0.946658659902692</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9670849854709513</v>
+        <v>0.9667301493779182</v>
       </c>
     </row>
     <row r="12">
@@ -7204,19 +7204,19 @@
         <v>25759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16718</v>
+        <v>16521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37868</v>
+        <v>37842</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03676598867767039</v>
+        <v>0.03676598867767038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02386148339224081</v>
+        <v>0.02358068089464584</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05404893966808193</v>
+        <v>0.05401196466587768</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -7225,19 +7225,19 @@
         <v>91124</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78136</v>
+        <v>77807</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107464</v>
+        <v>106766</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1238450559320058</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1061933413918677</v>
+        <v>0.1057453596979411</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1460516865596873</v>
+        <v>0.1451035346421028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>167</v>
@@ -7246,19 +7246,19 @@
         <v>116883</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99975</v>
+        <v>101892</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134428</v>
+        <v>138368</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08137171686543236</v>
+        <v>0.08137171686543238</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06960058172254592</v>
+        <v>0.07093519681280536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09358612473240992</v>
+        <v>0.09632924549322414</v>
       </c>
     </row>
     <row r="14">
@@ -7275,19 +7275,19 @@
         <v>674858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>662749</v>
+        <v>662775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>683899</v>
+        <v>684096</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9632340113223298</v>
+        <v>0.9632340113223296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9459510603319198</v>
+        <v>0.9459880353341223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9761385166077593</v>
+        <v>0.9764193191053543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>996</v>
@@ -7296,19 +7296,19 @@
         <v>644668</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>628328</v>
+        <v>629026</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>657656</v>
+        <v>657985</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8761549440679941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8539483134403127</v>
+        <v>0.8548964653578972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8938066586081324</v>
+        <v>0.894254640302059</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1637</v>
@@ -7317,19 +7317,19 @@
         <v>1319526</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1301981</v>
+        <v>1298041</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1336434</v>
+        <v>1334517</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9186282831345675</v>
+        <v>0.9186282831345676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9064138752675902</v>
+        <v>0.9036707545067755</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9303994182774545</v>
+        <v>0.9290648031871945</v>
       </c>
     </row>
     <row r="15">
@@ -7421,19 +7421,19 @@
         <v>41896</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29990</v>
+        <v>31576</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52880</v>
+        <v>54281</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06886753506921803</v>
+        <v>0.06886753506921801</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04929607355664937</v>
+        <v>0.05190366636666115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08692211651400315</v>
+        <v>0.08922529081262007</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>138</v>
@@ -7442,19 +7442,19 @@
         <v>82367</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69931</v>
+        <v>69120</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96011</v>
+        <v>95729</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1357482783576887</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1152525655394212</v>
+        <v>0.1139152090041968</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1582347442170585</v>
+        <v>0.1577688127793198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>186</v>
@@ -7463,19 +7463,19 @@
         <v>124263</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106742</v>
+        <v>108508</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144011</v>
+        <v>144129</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1022640417911926</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08784420092599109</v>
+        <v>0.08929760280233515</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1185155803074557</v>
+        <v>0.1186123654944013</v>
       </c>
     </row>
     <row r="17">
@@ -7492,19 +7492,19 @@
         <v>566463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>555479</v>
+        <v>554078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>578369</v>
+        <v>576783</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9311324649307822</v>
+        <v>0.9311324649307819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9130778834859967</v>
+        <v>0.9107747091873798</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9507039264433503</v>
+        <v>0.9480963336333389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>861</v>
@@ -7513,19 +7513,19 @@
         <v>524398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>510754</v>
+        <v>511036</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>536834</v>
+        <v>537645</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8642517216423112</v>
+        <v>0.8642517216423115</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8417652557829418</v>
+        <v>0.8422311872206802</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8847474344605789</v>
+        <v>0.8860847909958034</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1475</v>
@@ -7534,19 +7534,19 @@
         <v>1090861</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1071113</v>
+        <v>1070995</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1108382</v>
+        <v>1106616</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8977359582088074</v>
+        <v>0.8977359582088076</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8814844196925444</v>
+        <v>0.8813876345055988</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9121557990740089</v>
+        <v>0.9107023971976649</v>
       </c>
     </row>
     <row r="18">
@@ -7638,19 +7638,19 @@
         <v>24420</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17303</v>
+        <v>17176</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33789</v>
+        <v>33770</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06011667924386483</v>
+        <v>0.06011667924386482</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04259487176442645</v>
+        <v>0.04228248187068735</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08318001991837735</v>
+        <v>0.08313450999788544</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>128</v>
@@ -7659,19 +7659,19 @@
         <v>69080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58524</v>
+        <v>57448</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81246</v>
+        <v>80587</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1572991790482676</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1332627691055851</v>
+        <v>0.1308109647939104</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1850017986126331</v>
+        <v>0.1834999316762023</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>162</v>
@@ -7680,19 +7680,19 @@
         <v>93501</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80524</v>
+        <v>79647</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108792</v>
+        <v>107550</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1106021263505567</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09525215838819276</v>
+        <v>0.09421521139132731</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.12869072353056</v>
+        <v>0.1272207719249492</v>
       </c>
     </row>
     <row r="20">
@@ -7709,19 +7709,19 @@
         <v>381791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>372422</v>
+        <v>372441</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>388908</v>
+        <v>389035</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9398833207561352</v>
+        <v>0.939883320756135</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9168199800816228</v>
+        <v>0.9168654900021146</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9574051282355737</v>
+        <v>0.9577175181293127</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>699</v>
@@ -7730,19 +7730,19 @@
         <v>370086</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>357920</v>
+        <v>358579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>380642</v>
+        <v>381718</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8427008209517325</v>
+        <v>0.8427008209517322</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8149982013873669</v>
+        <v>0.8165000683237972</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8667372308944149</v>
+        <v>0.8691890352060894</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1234</v>
@@ -7751,19 +7751,19 @@
         <v>751877</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>736586</v>
+        <v>737828</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>764854</v>
+        <v>765731</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8893978736494431</v>
+        <v>0.8893978736494434</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8713092764694398</v>
+        <v>0.872779228075051</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9047478416118072</v>
+        <v>0.9057847886086727</v>
       </c>
     </row>
     <row r="21">
@@ -7855,19 +7855,19 @@
         <v>27569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20335</v>
+        <v>20584</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37027</v>
+        <v>37612</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08887615031547778</v>
+        <v>0.0888761503154778</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06555336943925064</v>
+        <v>0.06635658879977724</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1193658725028477</v>
+        <v>0.1212504060239902</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>208</v>
@@ -7876,19 +7876,19 @@
         <v>110226</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>97260</v>
+        <v>96517</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>123748</v>
+        <v>125227</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2372450247013322</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2093380073825797</v>
+        <v>0.2077382335449244</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2663491518784564</v>
+        <v>0.2695314146361811</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>248</v>
@@ -7897,19 +7897,19 @@
         <v>137795</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121116</v>
+        <v>121573</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>155663</v>
+        <v>154324</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1778447327272877</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1563179409322416</v>
+        <v>0.1569071490724175</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2009057142394873</v>
+        <v>0.1991774939429873</v>
       </c>
     </row>
     <row r="23">
@@ -7926,19 +7926,19 @@
         <v>282629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>273171</v>
+        <v>272586</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>289863</v>
+        <v>289614</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.911123849684522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8806341274971522</v>
+        <v>0.8787495939760096</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9344466305607494</v>
+        <v>0.9336434112002225</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>673</v>
@@ -7947,19 +7947,19 @@
         <v>354383</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>340861</v>
+        <v>339382</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>367349</v>
+        <v>368092</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7627549752986678</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7336508481215437</v>
+        <v>0.7304685853638185</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7906619926174203</v>
+        <v>0.7922617664550755</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1091</v>
@@ -7968,19 +7968,19 @@
         <v>637012</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>619144</v>
+        <v>620483</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>653691</v>
+        <v>653234</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8221552672727123</v>
+        <v>0.8221552672727122</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7990942857605137</v>
+        <v>0.8008225060570124</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8436820590677585</v>
+        <v>0.8430928509275819</v>
       </c>
     </row>
     <row r="24">
@@ -8072,19 +8072,19 @@
         <v>135259</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>114111</v>
+        <v>114262</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>159257</v>
+        <v>159871</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03830702820320399</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03231788471421401</v>
+        <v>0.03236046250818243</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04510363066679177</v>
+        <v>0.04527750880996773</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>681</v>
@@ -8093,19 +8093,19 @@
         <v>406336</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>376233</v>
+        <v>376729</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>436486</v>
+        <v>437447</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1088960222174735</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1008284081818562</v>
+        <v>0.1009615313616436</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.116975956090737</v>
+        <v>0.1172334572170692</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>840</v>
@@ -8114,19 +8114,19 @@
         <v>541595</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>506200</v>
+        <v>506301</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>579861</v>
+        <v>582490</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0745759892807021</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06970228890289258</v>
+        <v>0.06971613680761042</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07984514638403362</v>
+        <v>0.08020719445968978</v>
       </c>
     </row>
     <row r="26">
@@ -8143,19 +8143,19 @@
         <v>3395647</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3371649</v>
+        <v>3371035</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3416795</v>
+        <v>3416644</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.961692971796796</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9548963693332084</v>
+        <v>0.9547224911900319</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9676821152857861</v>
+        <v>0.9676395374918176</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4677</v>
@@ -8164,19 +8164,19 @@
         <v>3325079</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3294929</v>
+        <v>3293968</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3355182</v>
+        <v>3354686</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8911039777825265</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8830240439092634</v>
+        <v>0.8827665427829312</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8991715918181442</v>
+        <v>0.8990384686383565</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7892</v>
@@ -8185,19 +8185,19 @@
         <v>6720727</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6682461</v>
+        <v>6679832</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6756122</v>
+        <v>6756021</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.925424010719298</v>
+        <v>0.9254240107192978</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9201548536159665</v>
+        <v>0.9197928055403102</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9302977110971075</v>
+        <v>0.9302838631923895</v>
       </c>
     </row>
     <row r="27">
